--- a/DATA_goal/Junction_Flooding_282.xlsx
+++ b/DATA_goal/Junction_Flooding_282.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41714.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.48</v>
+        <v>2.25</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.28</v>
+        <v>4.73</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.11</v>
+        <v>3.91</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.69</v>
+        <v>1.77</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>58.51</v>
+        <v>5.85</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.22</v>
+        <v>2.72</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.56</v>
+        <v>1.16</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.75</v>
+        <v>1.88</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.64</v>
+        <v>1.96</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.6</v>
+        <v>1.76</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.74</v>
+        <v>2.47</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>260.47</v>
+        <v>26.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>48.99</v>
+        <v>4.9</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.49</v>
+        <v>3.25</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.95</v>
+        <v>1.7</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.13</v>
+        <v>2.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.35</v>
+        <v>1.43</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.4</v>
+        <v>1.94</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.63</v>
+        <v>5.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41714.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.33</v>
+        <v>2.13</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.76</v>
+        <v>4.58</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>37.85</v>
+        <v>3.79</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.79</v>
+        <v>1.68</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>65.20999999999999</v>
+        <v>6.52</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.83</v>
+        <v>2.58</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.4</v>
+        <v>1.84</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.64</v>
+        <v>2.36</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.15</v>
+        <v>1.41</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>1.66</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>246.77</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>46.71</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>31.18</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>16.58</v>
-      </c>
       <c r="Y3" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.52</v>
+        <v>3.15</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.21</v>
+        <v>1.92</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>58.97</v>
+        <v>5.9</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41714.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.15</v>
+        <v>2.32</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.95</v>
+        <v>0.4</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>60.25</v>
+        <v>6.02</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.43</v>
+        <v>1.04</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.18</v>
+        <v>2.12</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41714.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.41</v>
+        <v>1.64</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>48.18</v>
+        <v>4.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.84</v>
+        <v>3.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.7</v>
+        <v>6.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.99</v>
+        <v>2.7</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.43</v>
+        <v>1.94</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.38</v>
+        <v>2.04</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.8</v>
+        <v>2.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.69</v>
+        <v>1.47</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>258.2</v>
+        <v>25.82</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.69</v>
+        <v>4.87</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.73</v>
+        <v>3.27</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.4</v>
+        <v>1.74</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.82</v>
+        <v>3.18</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.35</v>
+        <v>2.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>58.35</v>
+        <v>5.84</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41714.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>16.28</v>
+        <v>1.63</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD6" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>27.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.57</v>
-      </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41714.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>19.51</v>
+        <v>1.95</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>42.22</v>
+        <v>4.22</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>34.91</v>
+        <v>3.49</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15.35</v>
+        <v>1.53</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>55.56</v>
+        <v>5.56</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>17.04</v>
+        <v>1.7</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>21.72</v>
+        <v>2.17</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>225</v>
+        <v>22.5</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>42.56</v>
+        <v>4.26</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>28.65</v>
+        <v>2.86</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>15.23</v>
+        <v>1.52</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>27.43</v>
+        <v>2.74</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.45</v>
+        <v>1.24</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.95</v>
+        <v>1.3</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.85</v>
+        <v>1.78</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>50.02</v>
+        <v>5</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.95</v>
+        <v>0.8</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41714.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>38.7</v>
+        <v>3.87</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>31.99</v>
+        <v>3.2</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>55.21</v>
+        <v>5.52</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>21.64</v>
+        <v>2.16</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>19.93</v>
+        <v>1.99</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>205.56</v>
+        <v>20.56</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>39.14</v>
+        <v>3.91</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>26.35</v>
+        <v>2.64</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>26.77</v>
+        <v>2.68</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>11.86</v>
+        <v>1.19</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>16.36</v>
+        <v>1.64</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>50.1</v>
+        <v>5.01</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41714.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>21.14</v>
+        <v>2.11</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>45.83</v>
+        <v>4.58</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>37.89</v>
+        <v>3.79</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.63</v>
+        <v>1.66</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>64.58</v>
+        <v>6.46</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>17.05</v>
+        <v>1.7</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19.42</v>
+        <v>1.94</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>23.6</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>244.48</v>
+        <v>24.45</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>46.26</v>
+        <v>4.63</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>31.2</v>
+        <v>3.12</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.5</v>
+        <v>1.65</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>31.39</v>
+        <v>3.14</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>19.37</v>
+        <v>1.94</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>58.53</v>
+        <v>5.85</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41714.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.95</v>
+        <v>1.6</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>34.56</v>
+        <v>3.46</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>28.57</v>
+        <v>2.86</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.55</v>
+        <v>1.26</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>50.59</v>
+        <v>5.06</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.85</v>
+        <v>1.28</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.64</v>
+        <v>1.46</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>182.68</v>
+        <v>18.27</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>34.96</v>
+        <v>3.5</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>23.55</v>
+        <v>2.36</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>12.46</v>
+        <v>1.25</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>24.29</v>
+        <v>2.43</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.61</v>
+        <v>1.46</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>45.9</v>
+        <v>4.59</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_282.xlsx
+++ b/DATA_goal/Junction_Flooding_282.xlsx
@@ -447,11 +447,11 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -469,8 +469,8 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44963.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.2</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.13</v>
+        <v>101.32</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44963.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.38</v>
+        <v>23.81</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.72</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.22</v>
+        <v>52.24</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.22</v>
+        <v>42.15</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.81</v>
+        <v>18.14</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.85</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.9</v>
+        <v>29</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.99</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.55</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.91</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.24</v>
+        <v>22.37</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.65</v>
+        <v>26.49</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.13</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.88</v>
+        <v>278.81</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.25</v>
+        <v>52.51</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.5</v>
+        <v>35</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.54</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.53</v>
+        <v>35.3</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.68</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.99</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.26</v>
+        <v>62.58</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44963.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.71</v>
+        <v>17.14</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="E4" s="4" t="n">
-        <v>3.76</v>
+        <v>37.63</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.04</v>
+        <v>30.42</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.06</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.44</v>
+        <v>54.44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.87</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.37</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.07</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.12</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.87</v>
+        <v>198.7</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.79</v>
+        <v>37.91</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.53</v>
+        <v>25.28</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.33</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.7</v>
+        <v>26.96</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.04</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.85</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.92</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.97</v>
+        <v>49.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44963.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.61</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.08</v>
+        <v>40.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.32</v>
+        <v>33.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.75</v>
+        <v>57.53</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.26</v>
+        <v>22.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.42</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.59</v>
+        <v>215.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.1</v>
+        <v>41.01</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.75</v>
+        <v>27.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.47</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.84</v>
+        <v>28.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.46</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.22</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.23</v>
+        <v>52.33</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.57</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_282.xlsx
+++ b/DATA_goal/Junction_Flooding_282.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44963.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.82</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.79</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.6</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.2</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.89</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.28</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.96</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.56</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.7</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.76</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.88</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.78</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.56</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.32</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.59</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.19</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.91</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.55</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.82</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.51</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.11</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.57</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.88</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.33</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.24</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44963.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.81</v>
+        <v>23.812</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.72</v>
+        <v>17.722</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.89</v>
+        <v>1.886</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>52.24</v>
+        <v>52.242</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.15</v>
+        <v>42.154</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.14</v>
+        <v>18.141</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>68.54000000000001</v>
+        <v>68.538</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29</v>
+        <v>29.002</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.99</v>
+        <v>12.993</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.55</v>
+        <v>18.548</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.91</v>
+        <v>20.906</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>22.37</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.35</v>
+        <v>6.352</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.49</v>
+        <v>26.489</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.13</v>
+        <v>16.127</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.875</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.991</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.81</v>
+        <v>278.809</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.51</v>
+        <v>52.506</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35</v>
+        <v>34.999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.54</v>
+        <v>18.537</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.42</v>
+        <v>2.417</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.3</v>
+        <v>35.299</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>13.68</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.99</v>
+        <v>15.991</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.13</v>
+        <v>22.127</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>62.58</v>
+        <v>62.579</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44963.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.14</v>
+        <v>17.136</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.77</v>
+        <v>12.775</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.28</v>
+        <v>1.276</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>37.63</v>
+        <v>37.625</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.42</v>
+        <v>30.418</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.06</v>
+        <v>13.064</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>54.44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.87</v>
+        <v>20.868</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.42</v>
+        <v>9.423</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.37</v>
+        <v>13.368</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.07</v>
+        <v>15.068</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.12</v>
+        <v>16.118</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.56</v>
+        <v>4.562</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.09</v>
+        <v>19.094</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.61</v>
+        <v>11.606</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.586</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>198.7</v>
+        <v>198.701</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.91</v>
+        <v>37.906</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.28</v>
+        <v>25.279</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.33</v>
+        <v>13.335</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.75</v>
+        <v>1.751</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.96</v>
+        <v>26.956</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.04</v>
+        <v>11.035</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.85</v>
+        <v>9.851000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.54</v>
+        <v>11.536</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.92</v>
+        <v>15.918</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>49.71</v>
+        <v>49.711</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.94</v>
+        <v>6.938</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44963.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>37.63</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>53.71</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.19</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>198.7</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>37.88</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>25.41</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.42</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>48.87</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.62</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_282.xlsx
+++ b/DATA_goal/Junction_Flooding_282.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,103 +967,207 @@
         <v>44963.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.61</v>
+        <v>18.608</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.142</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.76</v>
+        <v>40.762</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.19</v>
+        <v>33.188</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.32</v>
+        <v>14.318</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.53</v>
+        <v>57.531</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>22.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.23</v>
+        <v>10.234</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.69</v>
+        <v>14.691</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.34</v>
+        <v>16.339</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.42</v>
+        <v>17.423</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.87</v>
+        <v>4.871</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.76</v>
+        <v>20.758</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>12.45</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.486</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.706</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>215.86</v>
+        <v>215.862</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>41.01</v>
+        <v>41.012</v>
       </c>
       <c r="V5" s="4" t="n">
+        <v>13.534</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>27.481</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>14.471</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>28.441</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>11.955</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>10.621</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>12.462</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>17.225</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>52.327</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>7.573</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>16.921</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44963.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>37.63</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>53.71</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O6" s="4" t="n">
         <v>13.53</v>
       </c>
-      <c r="W5" s="4" t="n">
-        <v>27.48</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>28.44</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>17.22</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>52.33</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>16.92</v>
+      <c r="P6" s="4" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>48.87</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.62</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_282.xlsx
+++ b/DATA_goal/Junction_Flooding_282.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,207 +967,103 @@
         <v>44963.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.608</v>
+        <v>18.61</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.911</v>
+        <v>13.91</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.142</v>
+        <v>1.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.762</v>
+        <v>40.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.188</v>
+        <v>33.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.318</v>
+        <v>14.32</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.531</v>
+        <v>57.53</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>22.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.234</v>
+        <v>10.23</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.691</v>
+        <v>14.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.339</v>
+        <v>16.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.423</v>
+        <v>17.42</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.871</v>
+        <v>4.87</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.663</v>
+        <v>14.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.758</v>
+        <v>20.76</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>12.45</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.486</v>
+        <v>0.49</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.706</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>215.862</v>
+        <v>215.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>41.012</v>
+        <v>41.01</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.534</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.481</v>
+        <v>27.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.471</v>
+        <v>14.47</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.441</v>
+        <v>28.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.955</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.621</v>
+        <v>10.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.462</v>
+        <v>12.46</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.225</v>
+        <v>17.22</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.483</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>52.327</v>
+        <v>52.33</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.573</v>
+        <v>7.57</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.921</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44963.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>37.63</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>53.71</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.19</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>198.7</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>37.88</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>25.41</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.42</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>48.87</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.62</v>
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>
